--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slamf6-Slamf6.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,9 +74,6 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T37"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01166966666666667</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H2">
-        <v>0.035009</v>
+        <v>0.030863</v>
       </c>
       <c r="I2">
-        <v>0.001980803255920245</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="J2">
-        <v>0.001980803255920244</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01166966666666667</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="N2">
-        <v>0.035009</v>
+        <v>0.030863</v>
       </c>
       <c r="O2">
-        <v>0.001980803255920245</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="P2">
-        <v>0.001980803255920244</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="Q2">
-        <v>0.0001361811201111111</v>
+        <v>0.0001058360854444445</v>
       </c>
       <c r="R2">
-        <v>0.001225630081</v>
+        <v>0.0009525247690000001</v>
       </c>
       <c r="S2">
-        <v>3.923581538664243E-06</v>
+        <v>7.995956405454225E-06</v>
       </c>
       <c r="T2">
-        <v>3.923581538664241E-06</v>
+        <v>7.995956405454227E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01166966666666667</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H3">
-        <v>0.035009</v>
+        <v>0.030863</v>
       </c>
       <c r="I3">
-        <v>0.001980803255920245</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="J3">
-        <v>0.001980803255920244</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01028766666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="N3">
-        <v>0.030863</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="O3">
-        <v>0.001746223282226471</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="P3">
-        <v>0.00174622328222647</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="Q3">
-        <v>0.0001200536407777778</v>
+        <v>0.01821687546233333</v>
       </c>
       <c r="R3">
-        <v>0.001080482767</v>
+        <v>0.163951879161</v>
       </c>
       <c r="S3">
-        <v>3.45892476299793E-06</v>
+        <v>0.001376291851958817</v>
       </c>
       <c r="T3">
-        <v>3.458924762997928E-06</v>
+        <v>0.001376291851958818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01028766666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.030863</v>
+      </c>
+      <c r="I4">
+        <v>0.002827712221116962</v>
+      </c>
+      <c r="J4">
+        <v>0.002827712221116963</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>0.01166966666666667</v>
-      </c>
-      <c r="H4">
-        <v>0.035009</v>
-      </c>
-      <c r="I4">
-        <v>0.001980803255920245</v>
-      </c>
-      <c r="J4">
-        <v>0.001980803255920244</v>
-      </c>
-      <c r="K4">
-        <v>3</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
       <c r="M4">
-        <v>2.194129333333333</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="N4">
-        <v>6.582388</v>
+        <v>0.001211</v>
       </c>
       <c r="O4">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="P4">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="Q4">
-        <v>0.02560475794355555</v>
+        <v>4.15278811111111E-06</v>
       </c>
       <c r="R4">
-        <v>0.230442821492</v>
+        <v>3.737509299999999E-05</v>
       </c>
       <c r="S4">
-        <v>0.000737711332432376</v>
+        <v>3.137447172019915E-07</v>
       </c>
       <c r="T4">
-        <v>0.0007377113324323756</v>
+        <v>3.137447172019916E-07</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01166966666666667</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H5">
-        <v>0.035009</v>
+        <v>0.030863</v>
       </c>
       <c r="I5">
-        <v>0.001980803255920245</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="J5">
-        <v>0.001980803255920244</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0002063333333333334</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="N5">
-        <v>0.0006190000000000001</v>
+        <v>0.689209</v>
       </c>
       <c r="O5">
-        <v>3.502291454810568E-05</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="P5">
-        <v>3.502291454810567E-05</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="Q5">
-        <v>2.407841222222222E-06</v>
+        <v>0.002363450818555555</v>
       </c>
       <c r="R5">
-        <v>2.1670571E-05</v>
+        <v>0.021271057367</v>
       </c>
       <c r="S5">
-        <v>6.937350316870425E-08</v>
+        <v>0.0001785596059439037</v>
       </c>
       <c r="T5">
-        <v>6.937350316870421E-08</v>
+        <v>0.0001785596059439038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +770,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.01166966666666667</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="H6">
-        <v>0.035009</v>
+        <v>0.030863</v>
       </c>
       <c r="I6">
-        <v>0.001980803255920245</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="J6">
-        <v>0.001980803255920244</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,90 +803,90 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.592669</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="N6">
-        <v>1.778007</v>
+        <v>4.880947</v>
       </c>
       <c r="O6">
-        <v>0.1005993331614438</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="P6">
-        <v>0.1005993331614438</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="Q6">
-        <v>0.006916249673666667</v>
+        <v>0.01673785191788889</v>
       </c>
       <c r="R6">
-        <v>0.062246247063</v>
+        <v>0.150640667261</v>
       </c>
       <c r="S6">
-        <v>0.0001992674866695934</v>
+        <v>0.001264551062091585</v>
       </c>
       <c r="T6">
-        <v>0.0001992674866695933</v>
+        <v>0.001264551062091585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.01166966666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="H7">
-        <v>0.035009</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="I7">
-        <v>0.001980803255920245</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="J7">
-        <v>0.001980803255920244</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>3.082419</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="N7">
-        <v>9.247256999999999</v>
+        <v>0.030863</v>
       </c>
       <c r="O7">
-        <v>0.5232082257114249</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="P7">
-        <v>0.5232082257114248</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="Q7">
-        <v>0.035970802257</v>
+        <v>0.01821687546233333</v>
       </c>
       <c r="R7">
-        <v>0.323737220313</v>
+        <v>0.163951879161</v>
       </c>
       <c r="S7">
-        <v>0.001036372557013445</v>
+        <v>0.001376291851958817</v>
       </c>
       <c r="T7">
-        <v>0.001036372557013444</v>
+        <v>0.001376291851958818</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.01028766666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="H8">
-        <v>0.030863</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="I8">
-        <v>0.001746223282226471</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="J8">
-        <v>0.00174622328222647</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01166966666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="N8">
-        <v>0.035009</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="O8">
-        <v>0.001980803255920245</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="P8">
-        <v>0.001980803255920244</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="Q8">
-        <v>0.0001200536407777778</v>
+        <v>3.135552021000999</v>
       </c>
       <c r="R8">
-        <v>0.001080482767</v>
+        <v>28.21996818900899</v>
       </c>
       <c r="S8">
-        <v>3.45892476299793E-06</v>
+        <v>0.2368921446940567</v>
       </c>
       <c r="T8">
-        <v>3.458924762997928E-06</v>
+        <v>0.2368921446940568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.01028766666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="H9">
-        <v>0.030863</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="I9">
-        <v>0.001746223282226471</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="J9">
-        <v>0.00174622328222647</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01028766666666667</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="N9">
-        <v>0.030863</v>
+        <v>0.001211</v>
       </c>
       <c r="O9">
-        <v>0.001746223282226471</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="P9">
-        <v>0.00174622328222647</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="Q9">
-        <v>0.0001058360854444444</v>
+        <v>0.0007147923463333331</v>
       </c>
       <c r="R9">
-        <v>0.0009525247689999999</v>
+        <v>0.006433131116999998</v>
       </c>
       <c r="S9">
-        <v>3.049295751389788E-06</v>
+        <v>5.400283293011463E-05</v>
       </c>
       <c r="T9">
-        <v>3.049295751389787E-06</v>
+        <v>5.400283293011465E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1018,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.01028766666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="H10">
-        <v>0.030863</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="I10">
-        <v>0.001746223282226471</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="J10">
-        <v>0.00174622328222647</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.194129333333333</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="N10">
-        <v>6.582388</v>
+        <v>0.689209</v>
       </c>
       <c r="O10">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="P10">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="Q10">
-        <v>0.02257247120488888</v>
+        <v>0.4068053825136665</v>
       </c>
       <c r="R10">
-        <v>0.203152240844</v>
+        <v>3.661248442622999</v>
       </c>
       <c r="S10">
-        <v>0.0006503466209506246</v>
+        <v>0.03073430097517042</v>
       </c>
       <c r="T10">
-        <v>0.0006503466209506244</v>
+        <v>0.03073430097517043</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,155 +1080,155 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.01028766666666667</v>
+        <v>1.770749</v>
       </c>
       <c r="H11">
-        <v>0.030863</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="I11">
-        <v>0.001746223282226471</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="J11">
-        <v>0.00174622328222647</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.0002063333333333334</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="N11">
-        <v>0.0006190000000000001</v>
+        <v>4.880947</v>
       </c>
       <c r="O11">
-        <v>3.502291454810568E-05</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="P11">
-        <v>3.502291454810567E-05</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="Q11">
-        <v>2.122688555555555E-06</v>
+        <v>2.880977339767666</v>
       </c>
       <c r="R11">
-        <v>1.9104197E-05</v>
+        <v>25.928796057909</v>
       </c>
       <c r="S11">
-        <v>6.11578287953303E-08</v>
+        <v>0.2176589309510687</v>
       </c>
       <c r="T11">
-        <v>6.115782879533029E-08</v>
+        <v>0.2176589309510688</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.0004036666666666666</v>
+      </c>
+      <c r="H12">
+        <v>0.001211</v>
+      </c>
+      <c r="I12">
+        <v>0.0001109535527904818</v>
+      </c>
+      <c r="J12">
+        <v>0.0001109535527904819</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
+      <c r="M12">
         <v>0.01028766666666667</v>
       </c>
-      <c r="H12">
+      <c r="N12">
         <v>0.030863</v>
       </c>
-      <c r="I12">
-        <v>0.001746223282226471</v>
-      </c>
-      <c r="J12">
-        <v>0.00174622328222647</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.592669</v>
-      </c>
-      <c r="N12">
-        <v>1.778007</v>
-      </c>
       <c r="O12">
-        <v>0.1005993331614438</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="P12">
-        <v>0.1005993331614438</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="Q12">
-        <v>0.006097181115666666</v>
+        <v>4.15278811111111E-06</v>
       </c>
       <c r="R12">
-        <v>0.054874630041</v>
+        <v>3.737509299999999E-05</v>
       </c>
       <c r="S12">
-        <v>0.0001756688977429707</v>
+        <v>3.137447172019915E-07</v>
       </c>
       <c r="T12">
-        <v>0.0001756688977429706</v>
+        <v>3.137447172019916E-07</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01028766666666667</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="H13">
-        <v>0.030863</v>
+        <v>0.001211</v>
       </c>
       <c r="I13">
-        <v>0.001746223282226471</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="J13">
-        <v>0.00174622328222647</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.082419</v>
+        <v>1.770749</v>
       </c>
       <c r="N13">
-        <v>9.247256999999999</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="O13">
-        <v>0.5232082257114249</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="P13">
-        <v>0.5232082257114248</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="Q13">
-        <v>0.03171089919899999</v>
+        <v>0.0007147923463333331</v>
       </c>
       <c r="R13">
-        <v>0.285398092791</v>
+        <v>0.006433131116999998</v>
       </c>
       <c r="S13">
-        <v>0.0009136383851896925</v>
+        <v>5.400283293011463E-05</v>
       </c>
       <c r="T13">
-        <v>0.0009136383851896921</v>
+        <v>5.400283293011465E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1266,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>2.194129333333333</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="H14">
-        <v>6.582388</v>
+        <v>0.001211</v>
       </c>
       <c r="I14">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="J14">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1299,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01166966666666667</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="N14">
-        <v>0.035009</v>
+        <v>0.001211</v>
       </c>
       <c r="O14">
-        <v>0.001980803255920245</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="P14">
-        <v>0.001980803255920244</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="Q14">
-        <v>0.02560475794355555</v>
+        <v>1.629467777777777E-07</v>
       </c>
       <c r="R14">
-        <v>0.230442821492</v>
+        <v>1.466521E-06</v>
       </c>
       <c r="S14">
-        <v>0.000737711332432376</v>
+        <v>1.231069087683024E-08</v>
       </c>
       <c r="T14">
-        <v>0.0007377113324323756</v>
+        <v>1.231069087683024E-08</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1328,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>2.194129333333333</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="H15">
-        <v>6.582388</v>
+        <v>0.001211</v>
       </c>
       <c r="I15">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="J15">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.01028766666666667</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="N15">
-        <v>0.030863</v>
+        <v>0.689209</v>
       </c>
       <c r="O15">
-        <v>0.001746223282226471</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="P15">
-        <v>0.00174622328222647</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="Q15">
-        <v>0.02257247120488888</v>
+        <v>9.273689988888887E-05</v>
       </c>
       <c r="R15">
-        <v>0.203152240844</v>
+        <v>0.0008346320989999998</v>
       </c>
       <c r="S15">
-        <v>0.0006503466209506246</v>
+        <v>7.006307967406518E-06</v>
       </c>
       <c r="T15">
-        <v>0.0006503466209506244</v>
+        <v>7.006307967406521E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1390,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>2.194129333333333</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="H16">
-        <v>6.582388</v>
+        <v>0.001211</v>
       </c>
       <c r="I16">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="J16">
-        <v>0.3724303916744365</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,42 +1423,42 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.194129333333333</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="N16">
-        <v>6.582388</v>
+        <v>4.880947</v>
       </c>
       <c r="O16">
-        <v>0.3724303916744365</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="P16">
-        <v>0.3724303916744365</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="Q16">
-        <v>4.814203531393777</v>
+        <v>0.0006567585352222221</v>
       </c>
       <c r="R16">
-        <v>43.327831782544</v>
+        <v>0.005910826816999999</v>
       </c>
       <c r="S16">
-        <v>0.1387043966427742</v>
+        <v>4.961835648488186E-05</v>
       </c>
       <c r="T16">
-        <v>0.1387043966427742</v>
+        <v>4.961835648488188E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.194129333333333</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="H17">
-        <v>6.582388</v>
+        <v>0.689209</v>
       </c>
       <c r="I17">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="J17">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1488,42 +1485,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.0002063333333333334</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="N17">
-        <v>0.0006190000000000001</v>
+        <v>0.030863</v>
       </c>
       <c r="O17">
-        <v>3.502291454810568E-05</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="P17">
-        <v>3.502291454810567E-05</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="Q17">
-        <v>0.0004527220191111111</v>
+        <v>0.002363450818555555</v>
       </c>
       <c r="R17">
-        <v>0.004074498172</v>
+        <v>0.021271057367</v>
       </c>
       <c r="S17">
-        <v>1.304359778273132E-05</v>
+        <v>0.0001785596059439037</v>
       </c>
       <c r="T17">
-        <v>1.304359778273132E-05</v>
+        <v>0.0001785596059439038</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1532,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.194129333333333</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="H18">
-        <v>6.582388</v>
+        <v>0.689209</v>
       </c>
       <c r="I18">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="J18">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,43 +1547,43 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.592669</v>
+        <v>1.770749</v>
       </c>
       <c r="N18">
-        <v>1.778007</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="O18">
-        <v>0.1005993331614438</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="P18">
-        <v>0.1005993331614438</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="Q18">
-        <v>1.300392437857333</v>
+        <v>0.4068053825136665</v>
       </c>
       <c r="R18">
-        <v>11.703531940716</v>
+        <v>3.661248442622999</v>
       </c>
       <c r="S18">
-        <v>0.03746624905150366</v>
+        <v>0.03073430097517042</v>
       </c>
       <c r="T18">
-        <v>0.03746624905150365</v>
+        <v>0.03073430097517043</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
       <c r="E19">
         <v>3</v>
       </c>
@@ -1594,46 +1591,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.194129333333333</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="H19">
-        <v>6.582388</v>
+        <v>0.689209</v>
       </c>
       <c r="I19">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="J19">
-        <v>0.3724303916744365</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.082419</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="N19">
-        <v>9.247256999999999</v>
+        <v>0.001211</v>
       </c>
       <c r="O19">
-        <v>0.5232082257114249</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="P19">
-        <v>0.5232082257114248</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="Q19">
-        <v>6.763225945523999</v>
+        <v>9.273689988888887E-05</v>
       </c>
       <c r="R19">
-        <v>60.869033509716</v>
+        <v>0.0008346320989999998</v>
       </c>
       <c r="S19">
-        <v>0.194858644428993</v>
+        <v>7.006307967406518E-06</v>
       </c>
       <c r="T19">
-        <v>0.1948586444289929</v>
+        <v>7.006307967406521E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1638,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.0002063333333333334</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="H20">
-        <v>0.0006190000000000001</v>
+        <v>0.689209</v>
       </c>
       <c r="I20">
-        <v>3.502291454810568E-05</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="J20">
-        <v>3.502291454810567E-05</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.01166966666666667</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="N20">
-        <v>0.035009</v>
+        <v>0.689209</v>
       </c>
       <c r="O20">
-        <v>0.001980803255920245</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="P20">
-        <v>0.001980803255920244</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="Q20">
-        <v>2.407841222222222E-06</v>
+        <v>0.05277878285344444</v>
       </c>
       <c r="R20">
-        <v>2.1670571E-05</v>
+        <v>0.4750090456809999</v>
       </c>
       <c r="S20">
-        <v>6.937350316870425E-08</v>
+        <v>0.003987457066811131</v>
       </c>
       <c r="T20">
-        <v>6.937350316870421E-08</v>
+        <v>0.003987457066811133</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,279 +1700,279 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.0002063333333333334</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="H21">
-        <v>0.0006190000000000001</v>
+        <v>0.689209</v>
       </c>
       <c r="I21">
-        <v>3.502291454810568E-05</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="J21">
-        <v>3.502291454810567E-05</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.01028766666666667</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="N21">
-        <v>0.030863</v>
+        <v>4.880947</v>
       </c>
       <c r="O21">
-        <v>0.001746223282226471</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="P21">
-        <v>0.00174622328222647</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="Q21">
-        <v>2.122688555555555E-06</v>
+        <v>0.3737769556581111</v>
       </c>
       <c r="R21">
-        <v>1.9104197E-05</v>
+        <v>3.363992600923</v>
       </c>
       <c r="S21">
-        <v>6.11578287953303E-08</v>
+        <v>0.02823899079652267</v>
       </c>
       <c r="T21">
-        <v>6.115782879533029E-08</v>
+        <v>0.02823899079652268</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.626982333333333</v>
+      </c>
+      <c r="H22">
+        <v>4.880947</v>
+      </c>
+      <c r="I22">
+        <v>0.4471993481684922</v>
+      </c>
+      <c r="J22">
+        <v>0.4471993481684923</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G22">
-        <v>0.0002063333333333334</v>
-      </c>
-      <c r="H22">
-        <v>0.0006190000000000001</v>
-      </c>
-      <c r="I22">
-        <v>3.502291454810568E-05</v>
-      </c>
-      <c r="J22">
-        <v>3.502291454810567E-05</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
       <c r="M22">
-        <v>2.194129333333333</v>
+        <v>0.01028766666666667</v>
       </c>
       <c r="N22">
-        <v>6.582388</v>
+        <v>0.030863</v>
       </c>
       <c r="O22">
-        <v>0.3724303916744365</v>
+        <v>0.002827712221116962</v>
       </c>
       <c r="P22">
-        <v>0.3724303916744365</v>
+        <v>0.002827712221116963</v>
       </c>
       <c r="Q22">
-        <v>0.0004527220191111111</v>
+        <v>0.01673785191788889</v>
       </c>
       <c r="R22">
-        <v>0.004074498172</v>
+        <v>0.150640667261</v>
       </c>
       <c r="S22">
-        <v>1.304359778273132E-05</v>
+        <v>0.001264551062091585</v>
       </c>
       <c r="T22">
-        <v>1.304359778273132E-05</v>
+        <v>0.001264551062091585</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.0002063333333333334</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="H23">
-        <v>0.0006190000000000001</v>
+        <v>4.880947</v>
       </c>
       <c r="I23">
-        <v>3.502291454810568E-05</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="J23">
-        <v>3.502291454810567E-05</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>0.0002063333333333334</v>
+        <v>1.770749</v>
       </c>
       <c r="N23">
-        <v>0.0006190000000000001</v>
+        <v>5.312246999999999</v>
       </c>
       <c r="O23">
-        <v>3.502291454810568E-05</v>
+        <v>0.4867156713051848</v>
       </c>
       <c r="P23">
-        <v>3.502291454810567E-05</v>
+        <v>0.4867156713051849</v>
       </c>
       <c r="Q23">
-        <v>4.257344444444445E-08</v>
+        <v>2.880977339767666</v>
       </c>
       <c r="R23">
-        <v>3.831610000000001E-07</v>
+        <v>25.928796057909</v>
       </c>
       <c r="S23">
-        <v>1.226604543443913E-09</v>
+        <v>0.2176589309510687</v>
       </c>
       <c r="T23">
-        <v>1.226604543443912E-09</v>
+        <v>0.2176589309510688</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.0002063333333333334</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="H24">
-        <v>0.0006190000000000001</v>
+        <v>4.880947</v>
       </c>
       <c r="I24">
-        <v>3.502291454810568E-05</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="J24">
-        <v>3.502291454810567E-05</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>0.592669</v>
+        <v>0.0004036666666666666</v>
       </c>
       <c r="N24">
-        <v>1.778007</v>
+        <v>0.001211</v>
       </c>
       <c r="O24">
-        <v>0.1005993331614438</v>
+        <v>0.0001109535527904818</v>
       </c>
       <c r="P24">
-        <v>0.1005993331614438</v>
+        <v>0.0001109535527904819</v>
       </c>
       <c r="Q24">
-        <v>0.0001222873703333333</v>
+        <v>0.0006567585352222221</v>
       </c>
       <c r="R24">
-        <v>0.001100586333</v>
+        <v>0.005910826816999999</v>
       </c>
       <c r="S24">
-        <v>3.523281848909661E-06</v>
+        <v>4.961835648488186E-05</v>
       </c>
       <c r="T24">
-        <v>3.52328184890966E-06</v>
+        <v>4.961835648488188E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.0002063333333333334</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="H25">
-        <v>0.0006190000000000001</v>
+        <v>4.880947</v>
       </c>
       <c r="I25">
-        <v>3.502291454810568E-05</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="J25">
-        <v>3.502291454810567E-05</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1981,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.082419</v>
+        <v>0.2297363333333333</v>
       </c>
       <c r="N25">
-        <v>9.247256999999999</v>
+        <v>0.689209</v>
       </c>
       <c r="O25">
-        <v>0.5232082257114249</v>
+        <v>0.06314631475241553</v>
       </c>
       <c r="P25">
-        <v>0.5232082257114248</v>
+        <v>0.06314631475241554</v>
       </c>
       <c r="Q25">
-        <v>0.000636005787</v>
+        <v>0.3737769556581111</v>
       </c>
       <c r="R25">
-        <v>0.005724052083</v>
+        <v>3.363992600923</v>
       </c>
       <c r="S25">
-        <v>1.832427697995722E-05</v>
+        <v>0.02823899079652267</v>
       </c>
       <c r="T25">
-        <v>1.832427697995722E-05</v>
+        <v>0.02823899079652268</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2013,13 +2010,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2028,728 +2025,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.592669</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="H26">
-        <v>1.778007</v>
+        <v>4.880947</v>
       </c>
       <c r="I26">
-        <v>0.1005993331614438</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="J26">
-        <v>0.1005993331614438</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.01166966666666667</v>
+        <v>1.626982333333333</v>
       </c>
       <c r="N26">
-        <v>0.035009</v>
+        <v>4.880947</v>
       </c>
       <c r="O26">
-        <v>0.001980803255920245</v>
+        <v>0.4471993481684922</v>
       </c>
       <c r="P26">
-        <v>0.001980803255920244</v>
+        <v>0.4471993481684923</v>
       </c>
       <c r="Q26">
-        <v>0.006916249673666667</v>
+        <v>2.647071512978778</v>
       </c>
       <c r="R26">
-        <v>0.062246247063</v>
+        <v>23.823643616809</v>
       </c>
       <c r="S26">
-        <v>0.0001992674866695934</v>
+        <v>0.1999872570023243</v>
       </c>
       <c r="T26">
-        <v>0.0001992674866695933</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>3</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>0.592669</v>
-      </c>
-      <c r="H27">
-        <v>1.778007</v>
-      </c>
-      <c r="I27">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="J27">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M27">
-        <v>0.01028766666666667</v>
-      </c>
-      <c r="N27">
-        <v>0.030863</v>
-      </c>
-      <c r="O27">
-        <v>0.001746223282226471</v>
-      </c>
-      <c r="P27">
-        <v>0.00174622328222647</v>
-      </c>
-      <c r="Q27">
-        <v>0.006097181115666666</v>
-      </c>
-      <c r="R27">
-        <v>0.054874630041</v>
-      </c>
-      <c r="S27">
-        <v>0.0001756688977429707</v>
-      </c>
-      <c r="T27">
-        <v>0.0001756688977429706</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>3</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-      <c r="G28">
-        <v>0.592669</v>
-      </c>
-      <c r="H28">
-        <v>1.778007</v>
-      </c>
-      <c r="I28">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="J28">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>2.194129333333333</v>
-      </c>
-      <c r="N28">
-        <v>6.582388</v>
-      </c>
-      <c r="O28">
-        <v>0.3724303916744365</v>
-      </c>
-      <c r="P28">
-        <v>0.3724303916744365</v>
-      </c>
-      <c r="Q28">
-        <v>1.300392437857333</v>
-      </c>
-      <c r="R28">
-        <v>11.703531940716</v>
-      </c>
-      <c r="S28">
-        <v>0.03746624905150366</v>
-      </c>
-      <c r="T28">
-        <v>0.03746624905150365</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>0.592669</v>
-      </c>
-      <c r="H29">
-        <v>1.778007</v>
-      </c>
-      <c r="I29">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="J29">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M29">
-        <v>0.0002063333333333334</v>
-      </c>
-      <c r="N29">
-        <v>0.0006190000000000001</v>
-      </c>
-      <c r="O29">
-        <v>3.502291454810568E-05</v>
-      </c>
-      <c r="P29">
-        <v>3.502291454810567E-05</v>
-      </c>
-      <c r="Q29">
-        <v>0.0001222873703333333</v>
-      </c>
-      <c r="R29">
-        <v>0.001100586333</v>
-      </c>
-      <c r="S29">
-        <v>3.523281848909661E-06</v>
-      </c>
-      <c r="T29">
-        <v>3.52328184890966E-06</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30">
-        <v>3</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>0.592669</v>
-      </c>
-      <c r="H30">
-        <v>1.778007</v>
-      </c>
-      <c r="I30">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="J30">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.592669</v>
-      </c>
-      <c r="N30">
-        <v>1.778007</v>
-      </c>
-      <c r="O30">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="P30">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="Q30">
-        <v>0.351256543561</v>
-      </c>
-      <c r="R30">
-        <v>3.161308892049</v>
-      </c>
-      <c r="S30">
-        <v>0.01012022583252717</v>
-      </c>
-      <c r="T30">
-        <v>0.01012022583252717</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31">
-        <v>3</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.592669</v>
-      </c>
-      <c r="H31">
-        <v>1.778007</v>
-      </c>
-      <c r="I31">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="J31">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>3.082419</v>
-      </c>
-      <c r="N31">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="O31">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="P31">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="Q31">
-        <v>1.826854186311</v>
-      </c>
-      <c r="R31">
-        <v>16.441687676799</v>
-      </c>
-      <c r="S31">
-        <v>0.05263439861115153</v>
-      </c>
-      <c r="T31">
-        <v>0.05263439861115152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32">
-        <v>3</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>3.082419</v>
-      </c>
-      <c r="H32">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="I32">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="J32">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="K32">
-        <v>2</v>
-      </c>
-      <c r="L32">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M32">
-        <v>0.01166966666666667</v>
-      </c>
-      <c r="N32">
-        <v>0.035009</v>
-      </c>
-      <c r="O32">
-        <v>0.001980803255920245</v>
-      </c>
-      <c r="P32">
-        <v>0.001980803255920244</v>
-      </c>
-      <c r="Q32">
-        <v>0.035970802257</v>
-      </c>
-      <c r="R32">
-        <v>0.323737220313</v>
-      </c>
-      <c r="S32">
-        <v>0.001036372557013445</v>
-      </c>
-      <c r="T32">
-        <v>0.001036372557013444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
-      <c r="A33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33">
-        <v>3</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>3.082419</v>
-      </c>
-      <c r="H33">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="I33">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="J33">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="K33">
-        <v>1</v>
-      </c>
-      <c r="L33">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M33">
-        <v>0.01028766666666667</v>
-      </c>
-      <c r="N33">
-        <v>0.030863</v>
-      </c>
-      <c r="O33">
-        <v>0.001746223282226471</v>
-      </c>
-      <c r="P33">
-        <v>0.00174622328222647</v>
-      </c>
-      <c r="Q33">
-        <v>0.03171089919899999</v>
-      </c>
-      <c r="R33">
-        <v>0.285398092791</v>
-      </c>
-      <c r="S33">
-        <v>0.0009136383851896925</v>
-      </c>
-      <c r="T33">
-        <v>0.0009136383851896921</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
-      <c r="A34" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34">
-        <v>3</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-      <c r="G34">
-        <v>3.082419</v>
-      </c>
-      <c r="H34">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="I34">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="J34">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="K34">
-        <v>3</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>2.194129333333333</v>
-      </c>
-      <c r="N34">
-        <v>6.582388</v>
-      </c>
-      <c r="O34">
-        <v>0.3724303916744365</v>
-      </c>
-      <c r="P34">
-        <v>0.3724303916744365</v>
-      </c>
-      <c r="Q34">
-        <v>6.763225945523999</v>
-      </c>
-      <c r="R34">
-        <v>60.869033509716</v>
-      </c>
-      <c r="S34">
-        <v>0.194858644428993</v>
-      </c>
-      <c r="T34">
-        <v>0.1948586444289929</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
-      <c r="A35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B35" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" t="s">
-        <v>26</v>
-      </c>
-      <c r="D35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35">
-        <v>3.082419</v>
-      </c>
-      <c r="H35">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="I35">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="J35">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="K35">
-        <v>1</v>
-      </c>
-      <c r="L35">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M35">
-        <v>0.0002063333333333334</v>
-      </c>
-      <c r="N35">
-        <v>0.0006190000000000001</v>
-      </c>
-      <c r="O35">
-        <v>3.502291454810568E-05</v>
-      </c>
-      <c r="P35">
-        <v>3.502291454810567E-05</v>
-      </c>
-      <c r="Q35">
-        <v>0.000636005787</v>
-      </c>
-      <c r="R35">
-        <v>0.005724052083</v>
-      </c>
-      <c r="S35">
-        <v>1.832427697995722E-05</v>
-      </c>
-      <c r="T35">
-        <v>1.832427697995722E-05</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
-      <c r="A36" t="s">
-        <v>25</v>
-      </c>
-      <c r="B36" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" t="s">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>3.082419</v>
-      </c>
-      <c r="H36">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="I36">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="J36">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>1</v>
-      </c>
-      <c r="M36">
-        <v>0.592669</v>
-      </c>
-      <c r="N36">
-        <v>1.778007</v>
-      </c>
-      <c r="O36">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="P36">
-        <v>0.1005993331614438</v>
-      </c>
-      <c r="Q36">
-        <v>1.826854186311</v>
-      </c>
-      <c r="R36">
-        <v>16.441687676799</v>
-      </c>
-      <c r="S36">
-        <v>0.05263439861115153</v>
-      </c>
-      <c r="T36">
-        <v>0.05263439861115152</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20">
-      <c r="A37" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" t="s">
-        <v>26</v>
-      </c>
-      <c r="C37" t="s">
-        <v>26</v>
-      </c>
-      <c r="D37" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37">
-        <v>3.082419</v>
-      </c>
-      <c r="H37">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="J37">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="K37">
-        <v>3</v>
-      </c>
-      <c r="L37">
-        <v>1</v>
-      </c>
-      <c r="M37">
-        <v>3.082419</v>
-      </c>
-      <c r="N37">
-        <v>9.247256999999999</v>
-      </c>
-      <c r="O37">
-        <v>0.5232082257114249</v>
-      </c>
-      <c r="P37">
-        <v>0.5232082257114248</v>
-      </c>
-      <c r="Q37">
-        <v>9.501306891560999</v>
-      </c>
-      <c r="R37">
-        <v>85.51176202404899</v>
-      </c>
-      <c r="S37">
-        <v>0.2737468474520973</v>
-      </c>
-      <c r="T37">
-        <v>0.2737468474520972</v>
+        <v>0.1999872570023244</v>
       </c>
     </row>
   </sheetData>
